--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>X, кВ</t>
   </si>
   <si>
-    <t>(9.75-1.090000033378601j)</t>
-  </si>
-  <si>
-    <t>(9.729999542236328-1.1399999856948853j)</t>
-  </si>
-  <si>
-    <t>(9.6899995803833-1.1799999475479126j)</t>
+    <t>(10.079999923706055-0.949999988079071j)</t>
+  </si>
+  <si>
+    <t>(10.5-0j)</t>
+  </si>
+  <si>
+    <t>(10.050000190734863-0.9900000095367432j)</t>
+  </si>
+  <si>
+    <t>0j</t>
+  </si>
+  <si>
+    <t>(10.5+0j)</t>
+  </si>
+  <si>
+    <t>(9.779999732971191-0.949999988079071j)</t>
   </si>
   <si>
     <t>(9.680000305175781-0.9399999976158142j)</t>
@@ -426,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -442,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -458,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +475,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -14,27 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>X, кВ</t>
   </si>
   <si>
-    <t>(10.079999923706055-0.949999988079071j)</t>
+    <t>(9.75-1.090000033378601j)</t>
   </si>
   <si>
-    <t>(10.5-0j)</t>
+    <t>(9.729999542236328-1.1399999856948853j)</t>
   </si>
   <si>
-    <t>(10.050000190734863-0.9900000095367432j)</t>
-  </si>
-  <si>
-    <t>0j</t>
-  </si>
-  <si>
-    <t>(10.5+0j)</t>
-  </si>
-  <si>
-    <t>(9.779999732971191-0.949999988079071j)</t>
+    <t>(9.6899995803833-1.1799999475479126j)</t>
   </si>
   <si>
     <t>(9.680000305175781-0.9399999976158142j)</t>
@@ -435,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -451,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -467,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -475,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -483,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
